--- a/bots/crawl_ch/output/bread_coop_2022-11-29.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-11-29.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -6993,45 +6993,45 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3410120</t>
+          <t>6826718</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
+          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehrkorn-broetchen-6-stueck/p/6826718</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Krisprolls</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1.31/100g</t>
+          <t>0.42/100g</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7051,60 +7051,56 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück 1.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6826718</t>
+          <t>3410120</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück</t>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/prix-garantie-frischback-mehrkorn-broetchen-6-stueck/p/6826718</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/krisprolls-vollkorn-schwedenbroetchen-nature-ohne-zuckerzusatz/p/3410120</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="E94" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Krisprolls</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.42/100g</t>
+          <t>1.31/100g</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7114,7 +7110,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7124,18 +7120,22 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Prix Garantie Frischback Mehrkorn Brötchen 6 Stück 1.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
+          <t>Krisprolls Vollkorn-Schwedenbrötchen Nature ohne Zuckerzusatz 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9760,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12093,35 +12093,35 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>2.39/100g</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12151,46 +12151,50 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E166" t="n">
         <v>5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -12200,7 +12204,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2.39/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12210,7 +12214,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12220,22 +12224,18 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12304,7 +12304,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12872,7 +12872,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14012,7 +14012,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15217,7 +15217,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15286,7 +15286,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16566,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16635,7 +16635,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16915,7 +16915,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -16984,7 +16984,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17189,7 +17189,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17465,7 +17465,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17534,7 +17534,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17603,7 +17603,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18106,7 +18106,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18321,7 +18321,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18536,7 +18536,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18603,7 +18603,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18672,7 +18672,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18741,7 +18741,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18810,7 +18810,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18879,7 +18879,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -18948,45 +18948,45 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>3584790</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Fine Food Engadiner Birnbrot</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E262" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>2.47/100g</t>
+          <t>2.31/100g</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19006,46 +19006,40 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>3584790</t>
+          <t>6832049</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot</t>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/fine-food-engadiner-birnbrot/p/3584790</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>32</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
       <c r="E263" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -19054,12 +19048,12 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>2.31/100g</t>
+          <t>1.95/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -19069,7 +19063,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19079,54 +19073,60 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Fine Food Engadiner Birnbrot 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N263" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>6832049</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-joghurt-erdbeeren/p/6832049</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>22</v>
+      </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>1.95/100g</t>
+          <t>2.47/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -19136,7 +19136,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -19146,22 +19146,22 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Joghurt &amp;amp; Erdbeeren - Online kein Bestand 20% ab 2 Aktion 1.95 Schweizer Franken</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19380,7 +19380,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19453,7 +19453,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19522,45 +19522,45 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E270" t="n">
         <v>4.5</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19580,60 +19580,56 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N270" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E271" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19643,7 +19639,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19653,12 +19649,12 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -19668,7 +19664,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19741,45 +19737,45 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19789,7 +19785,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19799,18 +19795,22 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N273" t="inlineStr"/>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -19954,7 +19954,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20242,7 +20242,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20382,7 +20382,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20451,7 +20451,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20524,7 +20524,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20591,7 +20591,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21017,7 +21017,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21090,7 +21090,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -21796,31 +21796,31 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>7031403</t>
+          <t>6726288</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E302" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -21829,12 +21829,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.09/100g</t>
+          <t>2.79/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21844,7 +21844,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21854,46 +21854,46 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+          <t>Karma Snack Linsen &amp;amp; Kichererbsen 20% ab 2 Aktion 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6338743</t>
+          <t>7031403</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Country Cracker Honig</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-dinkel-blaetterteig-eckig/p/7031403</t>
         </is>
       </c>
       <c r="D303" t="n">
         <v>3</v>
       </c>
       <c r="E303" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -21907,7 +21907,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.54/100g</t>
+          <t>1.09/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21927,39 +21927,43 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N303" t="inlineStr"/>
+          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>6726288</t>
+          <t>6338743</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen</t>
+          <t>Country Cracker Honig</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/karma-snack-linsen-kichererbsen/p/6726288</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-honig/p/6338743</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E304" t="n">
         <v>4.5</v>
@@ -21971,12 +21975,12 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>2.79/100g</t>
+          <t>1.54/100g</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -21986,7 +21990,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -22001,17 +22005,13 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>Karma Snack Linsen &amp;amp; Kichererbsen 20% ab 2 Aktion 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N304" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Honig 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22226,7 +22226,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22368,7 +22368,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22859,7 +22859,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -22932,7 +22932,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23001,7 +23001,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23425,7 +23425,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23494,7 +23494,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23563,7 +23563,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23705,7 +23705,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23778,7 +23778,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23847,7 +23847,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23920,7 +23920,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -23989,7 +23989,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24058,7 +24058,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24127,7 +24127,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24196,7 +24196,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24263,7 +24263,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24332,7 +24332,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24478,7 +24478,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24547,7 +24547,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24616,7 +24616,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24685,7 +24685,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24758,7 +24758,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -24831,45 +24831,45 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4234829</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E345" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>3.09/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -24879,7 +24879,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -24889,60 +24889,56 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E346" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24952,7 +24948,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24962,56 +24958,56 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E347" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25021,7 +25017,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25031,56 +25027,56 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>4234829</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Schär Wraps glutenfrei 2x80g</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/schaer-wraps-glutenfrei-2x80g/p/4234829</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>3.09/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25090,7 +25086,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25100,18 +25096,22 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N348" t="inlineStr"/>
+          <t>Schär Wraps glutenfrei 2x80g 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25184,7 +25184,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25251,7 +25251,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25324,7 +25324,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25393,7 +25393,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25462,7 +25462,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25531,7 +25531,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25673,7 +25673,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25742,7 +25742,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25811,7 +25811,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25878,7 +25878,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26020,7 +26020,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26089,7 +26089,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26158,7 +26158,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26227,7 +26227,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26296,7 +26296,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26365,7 +26365,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26432,7 +26432,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26505,7 +26505,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26716,7 +26716,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26789,7 +26789,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27069,7 +27069,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27140,7 +27140,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27282,7 +27282,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27418,7 +27418,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27560,7 +27560,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27702,7 +27702,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27775,7 +27775,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27842,7 +27842,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27911,7 +27911,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28051,7 +28051,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28120,7 +28120,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28189,7 +28189,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28335,7 +28335,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28406,7 +28406,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28544,7 +28544,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28613,7 +28613,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28684,7 +28684,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28751,7 +28751,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28820,7 +28820,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28889,7 +28889,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28956,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29029,7 +29029,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29098,7 +29098,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29171,7 +29171,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29240,7 +29240,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29313,7 +29313,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>
@@ -29386,7 +29386,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-11-29 10:56:57</t>
+          <t>2022-11-29 11:12:18</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/bread_coop_2022-11-29.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-11-29.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6283,31 +6283,31 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4043546</t>
+          <t>3942006</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn</t>
+          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-bitterschokolade-mini/p/3942006</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>3.67/100g</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6341,42 +6341,46 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Zwieback Vollkorn 3.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
+          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3942006</t>
+          <t>4043546</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini</t>
+          <t>Naturaplan Bio Zwieback Vollkorn</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-bitterschokolade-mini/p/3942006</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/naturaplan-bio-zwieback-vollkorn/p/4043546</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -6385,12 +6389,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>3.67/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6400,7 +6404,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6410,22 +6414,18 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln Bitterschokolade Mini 20% ab 2 Aktion 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Zwieback Vollkorn 3.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6494,7 +6494,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -7841,45 +7841,45 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>6820412</t>
+          <t>5688323</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Semmeli IP-Suisse</t>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-semmeli-ip-suisse/p/6820412</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E105" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7899,60 +7899,56 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Semmeli IP-Suisse 2.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5688323</t>
+          <t>6820412</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz</t>
+          <t>Betty Bossi Frischback Semmeli IP-Suisse</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-delicate-crisp-rosmarin-meersalz/p/5688323</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/betty-bossi-frischback-semmeli-ip-suisse/p/6820412</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7962,7 +7958,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7972,18 +7968,22 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Wasa Delicate Crisp Rosmarin &amp;amp; Meersalz 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
+          <t>Betty Bossi Frischback Semmeli IP-Suisse 2.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9760,31 +9760,31 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3041956</t>
+          <t>6641609</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Linzertorte</t>
+          <t>Naturaplan Bio Dinkelwaffeln</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-dinkelwaffeln/p/6641609</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -9793,12 +9793,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>0.82/100g</t>
+          <t>1.46/100g</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -9818,42 +9818,46 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Linzertorte 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr"/>
+          <t>Naturaplan Bio Dinkelwaffeln 20% ab 2 Aktion 1.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>6641609</t>
+          <t>3041956</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Dinkelwaffeln</t>
+          <t>Linzertorte</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-dinkelwaffeln/p/6641609</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/linzertorte/p/3041956</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -9862,12 +9866,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1.46/100g</t>
+          <t>0.82/100g</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9877,7 +9881,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -9887,22 +9891,18 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Dinkelwaffeln 20% ab 2 Aktion 1.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Linzertorte 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10819,7 +10819,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11107,7 +11107,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11675,31 +11675,31 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>6482126</t>
+          <t>4019115</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
+          <t>Choco Brownies 8 Stück</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E159" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -11708,12 +11708,12 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>0.60/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -11738,37 +11738,37 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>Prix Garantie Fairtrade Soft Cake Orange 1.80 Schweizer Franken</t>
+          <t>Choco Brownies 8 Stück 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4019115</t>
+          <t>6482126</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück</t>
+          <t>Prix Garantie Fairtrade Soft Cake Orange</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/choco-brownies-8-stueck/p/4019115</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-fairtrade-soft-cake-orange/p/6482126</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -11777,12 +11777,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>0.60/100g</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -11807,13 +11807,13 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Choco Brownies 8 Stück 3.60 Schweizer Franken</t>
+          <t>Prix Garantie Fairtrade Soft Cake Orange 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12093,35 +12093,35 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4952835</t>
+          <t>6382856</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei</t>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E165" t="n">
         <v>5</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2.39/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12151,60 +12151,56 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Roland Zwieback glutenfrei 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6382856</t>
+          <t>6132537</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-sesame-seasalt-glutenfrei/p/6382856</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12214,7 +12210,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12224,56 +12220,56 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot Sesame &amp;amp; Seasalt glutenfrei 3.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Reiswaffeln mit Salz 20% ab 2 Aktion 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6132537</t>
+          <t>4952835</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz</t>
+          <t>Roland Zwieback glutenfrei</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/naturaplan-bio-reiswaffeln-mit-salz/p/6132537</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/roland-zwieback-glutenfrei/p/4952835</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E167" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>2.39/100g</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -12283,7 +12279,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12293,18 +12289,22 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Reiswaffeln mit Salz 20% ab 2 Aktion 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr"/>
+          <t>Roland Zwieback glutenfrei 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12872,7 +12872,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13582,7 +13582,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14012,7 +14012,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14081,7 +14081,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14227,7 +14227,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -14937,28 +14937,28 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
@@ -14970,12 +14970,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14995,46 +14995,42 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 20% ab 2 Aktion 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N205" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6102963</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E206" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -15043,12 +15039,12 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2.73/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -15058,7 +15054,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15068,56 +15064,60 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr"/>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 20% ab 2 Aktion 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3023036</t>
+          <t>6102963</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück</t>
+          <t>Naturaplan Bio Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-buendner-nusstorte/p/6102963</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E207" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2.50/100g</t>
+          <t>2.73/100g</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15137,56 +15137,56 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>Old El Paso Taco-Schalen 12 Stück 20% ab 2 Aktion 3.90 Schweizer Franken</t>
+          <t>Naturaplan Bio Bündner Nusstorte 8.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>3023036</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Old El Paso Taco-Schalen 12 Stück</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-taco-schalen-12-stueck/p/3023036</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E208" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.50/100g</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -15196,7 +15196,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15206,18 +15206,18 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>Old El Paso Taco-Schalen 12 Stück 20% ab 2 Aktion 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15286,7 +15286,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15357,7 +15357,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15856,7 +15856,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -15929,7 +15929,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16355,7 +16355,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16566,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16635,7 +16635,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16777,7 +16777,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16915,7 +16915,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -16984,7 +16984,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17122,7 +17122,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17189,7 +17189,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17465,7 +17465,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17534,7 +17534,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17603,7 +17603,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17676,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17770,7 +17770,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245" t="n">
         <v>5</v>
@@ -17822,7 +17822,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -17891,45 +17891,45 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>3804246</t>
+          <t>4145230</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E247" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -17949,60 +17949,60 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4145230</t>
+          <t>3804246</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g</t>
+          <t>Schär Frischback Ciabatta glutenfrei</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-milchschokolade-2x45g/p/4145230</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-ciabatta-glutenfrei/p/3804246</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -18012,7 +18012,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -18022,22 +18022,22 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Milchschokolade 2x45g 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Schär Frischback Ciabatta glutenfrei 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18106,7 +18106,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18252,40 +18252,38 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6962218</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Old el Paso Wraps Classic</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
-        </is>
-      </c>
-      <c r="D252" t="n">
-        <v>11</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -18310,18 +18308,18 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
+          <t>Old el Paso Wraps Classic 20% ab 2 Aktion 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18392,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18467,7 +18465,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18536,38 +18534,40 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6962218</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-wraps-classic/p/6962218</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>11</v>
+      </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -18592,18 +18592,18 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Old el Paso Wraps Classic 20% ab 2 Aktion 3.80 Schweizer Franken</t>
+          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18672,7 +18672,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -18741,45 +18741,45 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6786544</t>
+          <t>3602932</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E259" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Mulino Bianco</t>
+          <t>Mestemacher</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.06/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -18789,7 +18789,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -18799,56 +18799,56 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
+          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>3602932</t>
+          <t>4010866</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/vollkorn-brotkoerbchen-10-portionen/p/3602932</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E260" t="n">
         <v>4.5</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Mestemacher</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -18858,7 +18858,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -18868,56 +18868,56 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Vollkorn Brotkörbchen 10 Portionen 4.50 Schweizer Franken</t>
+          <t>Old El Paso Crispy Chicken Fajita Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>4010866</t>
+          <t>6786544</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit</t>
+          <t>Mulino Bianco Nascondini</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-crispy-chicken-fajita-kit/p/4010866</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/mulino-bianco-nascondini/p/6786544</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Mulino Bianco</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>1.06/100g</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -18927,7 +18927,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -18937,18 +18937,18 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Old El Paso Crispy Chicken Fajita Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Mulino Bianco Nascondini 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19017,7 +19017,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19380,45 +19380,45 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>6869974</t>
+          <t>7014628</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
+          <t>Dar-Vida Rustico Roggen-Quinoa</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E268" t="n">
         <v>5</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>2.11/100g</t>
+          <t>4.94/100g</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -19428,7 +19428,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -19438,60 +19438,56 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Roland Knäckers Sesam &amp;amp; Chia 33% ab 3 Aktion 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N268" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>7014628</t>
+          <t>6869974</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa</t>
+          <t>Roland Knäckers Sesam &amp;amp; Chia</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-rustico-roggen-quinoa/p/7014628</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckers-sesam-chia/p/6869974</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
         <v>5</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>4.94/100g</t>
+          <t>2.11/100g</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -19501,7 +19497,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -19511,18 +19507,22 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>Dar-Vida Rustico Roggen-Quinoa 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N269" t="inlineStr"/>
+          <t>Roland Knäckers Sesam &amp;amp; Chia 33% ab 3 Aktion 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -19591,45 +19591,45 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>3</v>
       </c>
       <c r="E271" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19639,7 +19639,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19649,60 +19649,60 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>6345662</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Indian Delight Mini Naans bread nature</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>1.85/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19727,55 +19727,55 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
+          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>6345662</t>
+          <t>4145231</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/indian-delight-mini-naans-bread-nature/p/6345662</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E273" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.85/100g</t>
+          <t>3.28/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19785,7 +19785,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19795,46 +19795,44 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Indian Delight Mini Naans bread nature 4.80 Schweizer Franken</t>
+          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free']</t>
         </is>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4145231</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/fairtrade-reiswaffeln-mit-bitterschokolade-2x45g/p/4145231</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>14</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
       <c r="E274" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -19843,12 +19841,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.28/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19858,7 +19856,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19868,44 +19866,46 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'reiswaffeln']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Fairtrade Reiswaffeln mit Bitterschokolade 2x45g - Online kein Bestand 20% ab 2 Aktion 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>3</v>
+      </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -19914,12 +19914,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19939,22 +19939,22 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20027,7 +20027,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20096,7 +20096,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20169,7 +20169,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20242,7 +20242,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20382,7 +20382,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20451,7 +20451,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20524,29 +20524,31 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>6390812</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>5</v>
+      </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -20555,12 +20557,12 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20570,7 +20572,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20585,37 +20587,35 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>6390812</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-pudding-kuechlein-6x200g/p/6390812</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
       <c r="E285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -20624,12 +20624,12 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -20654,13 +20654,13 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>Prix Garantie Pudding Küchlein 6x200g 2.50 Schweizer Franken</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20875,7 +20875,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -20948,7 +20948,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21017,45 +21017,45 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>5646171</t>
+          <t>3001883</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück</t>
+          <t>Lambertz Dominos Zartbitter</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lambertz-dominos-zartbitter/p/3001883</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E291" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lambertz</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.27/100g</t>
+          <t>1.18/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21075,60 +21075,56 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr">
-        <is>
-          <t>['frozen', 'gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Lambertz Dominos Zartbitter 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>3001883</t>
+          <t>5646171</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Lambertz Dominos Zartbitter</t>
+          <t>FreeFrom Mini Baguettes 6 Stück</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lambertz-dominos-zartbitter/p/3001883</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/freefrom-mini-baguettes-6-stueck/p/5646171</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E292" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Lambertz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.18/100g</t>
+          <t>1.27/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21138,7 +21134,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21148,18 +21144,22 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Lambertz Dominos Zartbitter 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N292" t="inlineStr"/>
+          <t>FreeFrom Mini Baguettes 6 Stück 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>['frozen', 'gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21370,7 +21370,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21585,7 +21585,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21727,7 +21727,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21796,7 +21796,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -22011,45 +22011,45 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>5996119</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Betty Bossi Naturaplan Bio Butter-Mailänderli Guetzliteig</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-naturaplan-bio-butter-mailaenderli-guetzliteig/p/5996119</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -22069,60 +22069,60 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Butter-Mailänderli Guetzliteig 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>5996119</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Butter-Mailänderli Guetzliteig</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-naturaplan-bio-butter-mailaenderli-guetzliteig/p/5996119</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E306" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -22142,60 +22142,56 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Butter-Mailänderli Guetzliteig 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N306" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D307" t="n">
+        <v>33</v>
+      </c>
+      <c r="E307" t="n">
         <v>4</v>
       </c>
-      <c r="E307" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -22205,7 +22201,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22215,56 +22211,56 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -22274,7 +22270,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -22284,18 +22280,22 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N308" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -22368,31 +22368,31 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -22401,12 +22401,12 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22426,18 +22426,18 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -22506,45 +22506,45 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E312" t="n">
         <v>5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22554,7 +22554,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22564,18 +22564,22 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N312" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -22644,45 +22648,45 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E314" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -22692,7 +22696,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -22702,22 +22706,18 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N314" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -22790,24 +22790,24 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6773049</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Betty Bossi Brunsli Guetzliteig</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-brunsli-guetzliteig/p/6773049</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -22823,12 +22823,12 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -22838,7 +22838,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -22848,39 +22848,43 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr"/>
+          <t>Betty Bossi Brunsli Guetzliteig 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6773049</t>
+          <t>5910012</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Betty Bossi Brunsli Guetzliteig</t>
+          <t>Country Cracker Nature</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-brunsli-guetzliteig/p/6773049</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E317" t="n">
         <v>5</v>
@@ -22892,12 +22896,12 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22907,7 +22911,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22917,43 +22921,39 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Betty Bossi Brunsli Guetzliteig 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>5910012</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Country Cracker Nature</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature/p/5910012</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
         <v>5</v>
@@ -22970,7 +22970,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22990,18 +22990,18 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Country Cracker Nature 3.30 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23352,45 +23352,45 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E324" t="n">
         <v>5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2.93/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23415,17 +23415,13 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23494,45 +23490,45 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E326" t="n">
         <v>5</v>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>2.93/100g</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -23542,7 +23538,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -23557,13 +23553,17 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N326" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Quinoa 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23705,45 +23705,45 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E329" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -23763,60 +23763,56 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N329" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat - Online kein Bestand 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E330" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23826,7 +23822,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23836,18 +23832,22 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -23920,45 +23920,45 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>6581130</t>
+          <t>3446126</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Dona Pita Brot</t>
+          <t>Old El Paso Enchilada Kit</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E332" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Dona</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>0.57/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -23968,7 +23968,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -23983,51 +23983,51 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
+          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>3446126</t>
+          <t>6729406</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit</t>
+          <t>Roland Sport Banana Cranberry</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-enchilada-kit/p/3446126</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" t="n">
         <v>5</v>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>3.41/100g</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -24037,7 +24037,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -24047,56 +24047,56 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Old El Paso Enchilada Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+          <t>Roland Sport Banana Cranberry 33% ab 3 Aktion 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>6729406</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/roland-sport-banana-cranberry/p/6729406</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E334" t="n">
         <v>5</v>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>3.41/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -24106,7 +24106,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -24116,56 +24116,56 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>Roland Sport Banana Cranberry 33% ab 3 Aktion 4.60 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6581130</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Dona Pita Brot</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/dona-pita-brot/p/6581130</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E335" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Dona</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>0.57/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -24175,7 +24175,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -24185,18 +24185,18 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Dona Pita Brot 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24263,7 +24263,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24332,7 +24332,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24478,7 +24478,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24547,7 +24547,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24616,45 +24616,45 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>6967945</t>
+          <t>4496109</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat</t>
+          <t>Betty Bossi Amaretti Guetzliteig</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E342" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -24664,7 +24664,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -24674,56 +24674,60 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N342" t="inlineStr"/>
+          <t>Betty Bossi Amaretti Guetzliteig 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4496109</t>
+          <t>6967945</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig</t>
+          <t>St. Michel Dooomino au chocolat</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-amaretti-guetzliteig/p/4496109</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-dooomino-au-chocolat/p/6967945</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -24733,7 +24737,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -24743,22 +24747,18 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Betty Bossi Amaretti Guetzliteig 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N343" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>St. Michel Dooomino au chocolat 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24831,7 +24831,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -24900,45 +24900,45 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -24948,7 +24948,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -24958,56 +24958,56 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück - Online kein Bestand 4.30 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25027,18 +25027,22 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25111,7 +25115,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25184,7 +25188,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25251,24 +25255,24 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -25279,17 +25283,17 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25299,7 +25303,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25309,22 +25313,18 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25393,7 +25393,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25462,7 +25462,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25531,7 +25531,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25604,7 +25604,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25673,7 +25673,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -25742,45 +25742,43 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6610484</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Sapori PanettOne</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
-        </is>
-      </c>
-      <c r="D358" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr"/>
       <c r="E358" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25790,7 +25788,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25800,54 +25798,56 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>6610484</t>
+          <t>5798822</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Sapori PanettOne</t>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
@@ -25857,7 +25857,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -25867,56 +25867,60 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N359" t="inlineStr"/>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>5798822</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E360" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25926,7 +25930,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25936,60 +25940,56 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N360" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26009,56 +26009,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E362" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26078,18 +26078,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26158,31 +26158,31 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E364" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
@@ -26191,12 +26191,12 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -26206,7 +26206,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -26221,51 +26221,51 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6579811</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Ines Rosales Süsse Tortas</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
         </is>
       </c>
       <c r="D365" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E365" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>INES ROSALES</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>2.56/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26275,7 +26275,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26290,51 +26290,49 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>6579811</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/ines-rosales-suesse-tortas/p/6579811</t>
-        </is>
-      </c>
-      <c r="D366" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>INES ROSALES</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.56/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26344,7 +26342,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26354,54 +26352,56 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Ines Rosales Süsse Tortas 4.60 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>17</v>
+      </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26421,42 +26421,42 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>6798601</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E368" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
@@ -26465,12 +26465,12 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26480,7 +26480,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26490,46 +26490,42 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Haselnussrollen 4x60g 4.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6798601</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
@@ -26538,12 +26534,12 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26553,7 +26549,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26563,18 +26559,22 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr"/>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26716,7 +26716,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26789,7 +26789,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27069,7 +27069,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27140,7 +27140,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27213,7 +27213,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27282,7 +27282,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27418,7 +27418,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27560,7 +27560,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27702,7 +27702,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27775,7 +27775,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27842,7 +27842,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27911,7 +27911,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -27982,7 +27982,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28045,13 +28045,13 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Pandorino - Online kein Bestand 1.60 Schweizer Franken</t>
+          <t>Pandorino 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28120,7 +28120,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28189,7 +28189,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28262,7 +28262,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28335,7 +28335,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28406,7 +28406,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28475,7 +28475,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28544,7 +28544,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28613,7 +28613,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28633,9 +28633,11 @@
           <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-fussballteig/p/7013464</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr"/>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -28684,7 +28686,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28751,7 +28753,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28820,7 +28822,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28889,7 +28891,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28958,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -28977,7 +28979,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E404" t="n">
         <v>4.5</v>
@@ -29029,7 +29031,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -29098,7 +29100,7 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -29171,7 +29173,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -29240,7 +29242,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -29313,7 +29315,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
@@ -29386,7 +29388,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-11-29 11:12:18</t>
+          <t>2022-11-29 20:49:14</t>
         </is>
       </c>
     </row>
